--- a/Wire_Section_Calculator/references/awg_sections.xlsx
+++ b/Wire_Section_Calculator/references/awg_sections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luciano.galan\Desktop\Code\Python_Eiit_RyR\Wire_Section_Calculator\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1490BF9-BFDE-40AC-B0FD-DC240E5E3CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9893A03F-29F2-41C2-9699-678CDF67814C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F4E6AF26-CADC-41E5-8F94-9720CED32DEA}"/>
   </bookViews>
@@ -36,7 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>awg</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,14 +393,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D620E894-C731-46FD-AA52-E2CECB4CA30B}">
-  <dimension ref="A2:B13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4000</v>

--- a/Wire_Section_Calculator/references/awg_sections.xlsx
+++ b/Wire_Section_Calculator/references/awg_sections.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luciano.galan\Desktop\Code\Python_Eiit_RyR\Wire_Section_Calculator\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9893A03F-29F2-41C2-9699-678CDF67814C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2039FA10-7783-41E2-9C2F-0A75DCE4CCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F4E6AF26-CADC-41E5-8F94-9720CED32DEA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F4E6AF26-CADC-41E5-8F94-9720CED32DEA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="awg" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,12 +37,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>awg</t>
   </si>
   <si>
     <t>section</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Letra</t>
+  </si>
+  <si>
+    <t>Número</t>
   </si>
 </sst>
 </file>
@@ -395,6 +411,125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D620E894-C731-46FD-AA52-E2CECB4CA30B}">
   <dimension ref="A1:B13"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4000</v>
+      </c>
+      <c r="B2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3000</v>
+      </c>
+      <c r="B3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5817E34-E9BF-44DA-A296-4A62499B40BD}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -403,106 +538,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>4000</v>
-      </c>
-      <c r="B2">
-        <v>120</v>
-      </c>
-    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3000</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2000</v>
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1000</v>
-      </c>
-      <c r="B5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
         <v>3</v>
-      </c>
-      <c r="B8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Wire_Section_Calculator/references/awg_sections.xlsx
+++ b/Wire_Section_Calculator/references/awg_sections.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luciano.galan\Desktop\Code\Python_Eiit_RyR\Wire_Section_Calculator\references\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucio\Desktop\Code\Python_Eiit_RyR\Wire_Section_Calculator\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2039FA10-7783-41E2-9C2F-0A75DCE4CCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F07B9C-3E52-4CCD-9B9F-72751E957E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F4E6AF26-CADC-41E5-8F94-9720CED32DEA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{F4E6AF26-CADC-41E5-8F94-9720CED32DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="awg" sheetId="1" r:id="rId1"/>
-    <sheet name="test" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,27 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>awg</t>
   </si>
   <si>
     <t>section</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Letra</t>
-  </si>
-  <si>
-    <t>Número</t>
   </si>
 </sst>
 </file>
@@ -411,7 +395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D620E894-C731-46FD-AA52-E2CECB4CA30B}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -524,51 +508,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5817E34-E9BF-44DA-A296-4A62499B40BD}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>